--- a/project2/data.xlsx
+++ b/project2/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>details</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>websites</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -476,6 +481,11 @@
           <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_de_l%27Int%C3%A9rieur_(Maroc)</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -498,6 +508,11 @@
           <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_des_Affaires_%C3%A9trang%C3%A8res_(Maroc)</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>['https://www.diplomatie.ma/fr']</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -520,6 +535,11 @@
           <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_de_la_Justice_(Maroc)</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>['https://justice.gov.ma/']</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -542,6 +562,11 @@
           <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_des_Habous_et_des_Affaires_islamiques</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -564,6 +589,11 @@
           <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_de_l%27%C3%89conomie_et_des_Finances_(Maroc)</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>['http://www.finances.gov.ma']</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -582,6 +612,11 @@
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -604,6 +639,11 @@
           <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_de_l%E2%80%99%C3%89ducation_nationale,_du_Pr%C3%A9scolaire_et_des_Sports_(Maroc)</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>['https://www.men.gov.ma/Fr/']</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -626,6 +666,11 @@
           <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_de_la_Sant%C3%A9_et_de_la_Protection_sociale_(Maroc)</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>['http://www.sante.gov.ma']</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -648,6 +693,11 @@
           <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_de_l%27Am%C3%A9nagement_du_territoire_national,_de_l%27Urbanisme,_de_l%27Habitat_et_de_la_Politique_de_la_ville</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>['https://www.mhpv.gov.ma', 'http://www.muat.gov.ma/']</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -670,6 +720,11 @@
           <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_de_l%27Agriculture,_de_la_P%C3%AAche_maritime,_du_D%C3%A9veloppement_rural_et_des_Eaux_et_for%C3%AAts</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>['https://www.agriculture.gov.ma/fr/accueil']</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -692,6 +747,11 @@
           <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_de_l%27inclusion_%C3%A9conomique,_de_la_petite_entreprise,_de_l%27emploi_et_des_comp%C3%A9tences</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>['https://miepeec.gov.ma/']</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -714,6 +774,11 @@
           <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_de_l%27Industrie_et_du_Commerce_(Maroc)</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -736,6 +801,11 @@
           <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_du_tourisme,_de_l%27artisanat_et_de_l%27%C3%A9conomie_sociale_et_solidaire</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -758,6 +828,11 @@
           <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_de_l%27enseignement_sup%C3%A9rieur,_de_la_recherche_scientifique_et_de_l%27innovation</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>['https://www.enssup.gov.ma']</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -780,6 +855,11 @@
           <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_de_la_transition_%C3%A9nerg%C3%A9tique_et_du_d%C3%A9veloppement_durable</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>['http://www.mtedd.gov.ma']</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -802,6 +882,11 @@
           <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_du_Transport_et_de_la_Logistique_(Maroc)</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>['http://www.transport.gov.ma']</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -824,6 +909,11 @@
           <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_de_la_Jeunesse,_de_la_Culture_et_de_la_Communication</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>['https://mjcc.gov.ma/']</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -844,6 +934,11 @@
       <c r="D19" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_de_la_solidarit%C3%A9,_de_l%27insertion_sociale_et_de_la_famille</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>['https://social.gov.ma/']</t>
         </is>
       </c>
     </row>
